--- a/myData/LEB 7-27-18 Strain 34 35 36.xlsx
+++ b/myData/LEB 7-27-18 Strain 34 35 36.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1200" windowWidth="23000" windowHeight="13860" activeTab="2"/>
+    <workbookView xWindow="920" yWindow="1200" windowWidth="23000" windowHeight="13860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="123">
   <si>
     <t>A</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>2018-07-27</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>dropExplanation</t>
   </si>
 </sst>
 </file>
@@ -3112,15 +3118,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="24">
+    <row r="1" spans="1:18" ht="24">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3169,8 +3175,14 @@
       <c r="P1" s="16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
@@ -3217,8 +3229,11 @@
       <c r="P2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
@@ -3255,8 +3270,11 @@
       <c r="P3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
@@ -3293,8 +3311,11 @@
       <c r="P4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
@@ -3331,8 +3352,11 @@
       <c r="P5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -3379,8 +3403,11 @@
       <c r="P6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
@@ -3417,8 +3444,11 @@
       <c r="P7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
@@ -3455,8 +3485,11 @@
       <c r="P8">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
@@ -3493,8 +3526,11 @@
       <c r="P9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -3541,8 +3577,11 @@
       <c r="P10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
@@ -3579,8 +3618,11 @@
       <c r="P11">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
@@ -3617,8 +3659,11 @@
       <c r="P12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
@@ -3655,8 +3700,11 @@
       <c r="P13">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
@@ -3703,8 +3751,11 @@
       <c r="P14">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
@@ -3741,8 +3792,11 @@
       <c r="P15">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
@@ -3779,8 +3833,11 @@
       <c r="P16">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
@@ -3817,8 +3874,11 @@
       <c r="P17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
@@ -3865,8 +3925,11 @@
       <c r="P18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
@@ -3903,8 +3966,11 @@
       <c r="P19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
@@ -3941,8 +4007,11 @@
       <c r="P20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
@@ -3979,8 +4048,11 @@
       <c r="P21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="10" t="s">
         <v>41</v>
       </c>
@@ -4027,8 +4099,11 @@
       <c r="P22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
@@ -4065,8 +4140,11 @@
       <c r="P23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
@@ -4103,8 +4181,11 @@
       <c r="P24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
@@ -4141,8 +4222,11 @@
       <c r="P25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="10" t="s">
         <v>46</v>
       </c>
@@ -4189,8 +4273,11 @@
       <c r="P26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
@@ -4227,8 +4314,11 @@
       <c r="P27">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
@@ -4265,8 +4355,11 @@
       <c r="P28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
@@ -4303,8 +4396,11 @@
       <c r="P29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="10" t="s">
         <v>51</v>
       </c>
@@ -4351,8 +4447,11 @@
       <c r="P30">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
@@ -4389,8 +4488,11 @@
       <c r="P31">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
@@ -4427,8 +4529,11 @@
       <c r="P32">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
@@ -4465,8 +4570,11 @@
       <c r="P33">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="10" t="s">
         <v>56</v>
       </c>
@@ -4513,8 +4621,11 @@
       <c r="P34">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
@@ -4551,8 +4662,11 @@
       <c r="P35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
@@ -4589,8 +4703,11 @@
       <c r="P36">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
@@ -4627,8 +4744,11 @@
       <c r="P37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="10" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4795,11 @@
       <c r="P38">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
@@ -4713,8 +4836,11 @@
       <c r="P39">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
@@ -4751,8 +4877,11 @@
       <c r="P40">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
@@ -4788,6 +4917,9 @@
       </c>
       <c r="P41">
         <v>20</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4805,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
